--- a/Applications/YaleFaces/Step03_PrincipalComponentAnalysis/Step03_IDs.xlsx
+++ b/Applications/YaleFaces/Step03_PrincipalComponentAnalysis/Step03_IDs.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\YaleFaces\Step03_PrincipalComponentAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lum\GitHub\MatlabAIML\Applications\YaleFaces\Step03_PrincipalComponentAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A45B9-E676-4423-B5E8-4278FCBA5FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17030" yWindow="-18120" windowWidth="29040" windowHeight="18240"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step03A" sheetId="4" r:id="rId1"/>
+    <sheet name="Step03B" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,31 +40,25 @@
     <t>trainingDataFile</t>
   </si>
   <si>
-    <t>Accuracy test</t>
-  </si>
-  <si>
-    <t>TrainedNeuralNetworkScenario1.mat</t>
-  </si>
-  <si>
     <t>TrainingAndTestDataScenario1.mat</t>
   </si>
   <si>
-    <t>Average error train</t>
-  </si>
-  <si>
-    <t>Average error test</t>
-  </si>
-  <si>
     <t>Time to perform PCA (sec)</t>
   </si>
   <si>
     <t>Time to perform PCA (hr)</t>
+  </si>
+  <si>
+    <t>PCAScenario1.mat</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario2.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -448,23 +433,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.26953125" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -472,158 +456,325 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="1">
-        <v>1217</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <f>C3/60/60</f>
-        <v>0.33805555555555561</v>
-      </c>
-      <c r="H3" s="5">
-        <v>45073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3.0555555555555553E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4/60/60</f>
+        <v>1.9444444444444444E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD28B46-C2D5-4624-84F4-F9BF8AAB30F9}">
+  <dimension ref="A2:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="6"/>
     </row>
